--- a/data/trans_orig/P21D5_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D5_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2A9D37F-F70A-47C6-AACA-D444D349E392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D48C7063-4F9D-4369-8126-6B3521F40D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FFB1E642-E429-4276-BDE0-05FFEDAE7FCF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C3F43A9A-CBCA-4B0F-BE85-8D83031D7ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="187">
   <si>
-    <t>Población que, necesitandolo, no pudo recibir atención médica mental (psiquiatra) en 2023 (Tasa respuesta: 43,82%)</t>
+    <t>Población que, necesitándolo, no pudo recibir atención médica mental (psiquiatra) en 2023 (Tasa respuesta: 43,82%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,7 +74,7 @@
     <t>95,5%</t>
   </si>
   <si>
-    <t>86,49%</t>
+    <t>83,64%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,16 +83,16 @@
     <t>98,92%</t>
   </si>
   <si>
-    <t>94,69%</t>
+    <t>95,04%</t>
   </si>
   <si>
     <t>97,13%</t>
   </si>
   <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,22 +104,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>13,51%</t>
+    <t>16,36%</t>
   </si>
   <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>5,31%</t>
+    <t>4,96%</t>
   </si>
   <si>
     <t>2,87%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -149,451 +149,451 @@
     <t>94,26%</t>
   </si>
   <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
   </si>
   <si>
     <t>97,32%</t>
   </si>
   <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
   </si>
   <si>
     <t>95,96%</t>
   </si>
   <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>0,26%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
   </si>
   <si>
     <t>0,07%</t>
   </si>
   <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
     <t>0,75%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1008,7 +1008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0258D07B-CF72-4E31-8FFA-7E04703C1871}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF70E7C-1D30-40D9-AA3E-F265A5D80DC7}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1512,7 +1512,7 @@
         <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -1521,13 +1521,13 @@
         <v>4587</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1784,7 +1784,7 @@
         <v>85</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1805,7 +1805,7 @@
         <v>29</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -1814,13 +1814,13 @@
         <v>2580</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -1829,13 +1829,13 @@
         <v>2580</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1891,7 +1891,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1903,13 +1903,13 @@
         <v>317945</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H19" s="7">
         <v>462</v>
@@ -1918,13 +1918,13 @@
         <v>332420</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="M19" s="7">
         <v>761</v>
@@ -1933,13 +1933,13 @@
         <v>650366</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1954,13 +1954,13 @@
         <v>14904</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -1969,13 +1969,13 @@
         <v>16415</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M20" s="7">
         <v>32</v>
@@ -1984,13 +1984,13 @@
         <v>31318</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2005,13 +2005,13 @@
         <v>2042</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -2020,13 +2020,13 @@
         <v>5560</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -2035,13 +2035,13 @@
         <v>7602</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>121</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2062,7 +2062,7 @@
         <v>21</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2077,7 +2077,7 @@
         <v>29</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -2086,13 +2086,13 @@
         <v>1077</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2148,7 +2148,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2160,13 +2160,13 @@
         <v>397923</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H24" s="7">
         <v>602</v>
@@ -2175,13 +2175,13 @@
         <v>471758</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M24" s="7">
         <v>1003</v>
@@ -2190,13 +2190,13 @@
         <v>869681</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2211,13 +2211,13 @@
         <v>20244</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H25" s="7">
         <v>52</v>
@@ -2226,13 +2226,13 @@
         <v>31838</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M25" s="7">
         <v>72</v>
@@ -2241,13 +2241,13 @@
         <v>52082</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2262,13 +2262,13 @@
         <v>3908</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -2277,13 +2277,13 @@
         <v>4724</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -2292,13 +2292,13 @@
         <v>8632</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2319,7 +2319,7 @@
         <v>21</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H27" s="7">
         <v>5</v>
@@ -2328,13 +2328,13 @@
         <v>3376</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>156</v>
+        <v>46</v>
       </c>
       <c r="M27" s="7">
         <v>7</v>
@@ -2343,13 +2343,13 @@
         <v>5122</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2417,13 +2417,13 @@
         <v>1388659</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H29" s="7">
         <v>2230</v>
@@ -2432,13 +2432,13 @@
         <v>1585375</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M29" s="7">
         <v>3618</v>
@@ -2447,13 +2447,13 @@
         <v>2974034</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2468,13 +2468,13 @@
         <v>115675</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H30" s="7">
         <v>112</v>
@@ -2483,13 +2483,13 @@
         <v>74664</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M30" s="7">
         <v>169</v>
@@ -2498,13 +2498,13 @@
         <v>190339</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,13 +2519,13 @@
         <v>10516</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H31" s="7">
         <v>20</v>
@@ -2534,10 +2534,10 @@
         <v>15891</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>178</v>
@@ -2552,7 +2552,7 @@
         <v>179</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>180</v>
@@ -2573,10 +2573,10 @@
         <v>181</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>97</v>
+        <v>182</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H32" s="7">
         <v>10</v>
@@ -2585,13 +2585,13 @@
         <v>6605</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M32" s="7">
         <v>14</v>
@@ -2603,10 +2603,10 @@
         <v>60</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>185</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P21D5_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D5_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D48C7063-4F9D-4369-8126-6B3521F40D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B335BE9-6B9C-4350-B386-720BF4BB69C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C3F43A9A-CBCA-4B0F-BE85-8D83031D7ECD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9E3D5677-3E18-410A-A1E5-74C081FCEE58}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No lo ha necesitado</t>
@@ -143,7 +143,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>94,26%</t>
@@ -236,7 +236,7 @@
     <t>1,14%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>85,44%</t>
@@ -332,7 +332,7 @@
     <t>0,78%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>94,64%</t>
@@ -1008,7 +1008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF70E7C-1D30-40D9-AA3E-F265A5D80DC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317870E4-435D-460A-8FB3-8E975FF0B78C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D5_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D5_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B335BE9-6B9C-4350-B386-720BF4BB69C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{046C0122-087B-43C7-9F5A-587E0BEA36D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9E3D5677-3E18-410A-A1E5-74C081FCEE58}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B039E57A-B1EE-4C48-B05F-6E5902C310C7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>95,5%</t>
   </si>
   <si>
-    <t>83,64%</t>
+    <t>86,49%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,16 +83,16 @@
     <t>98,92%</t>
   </si>
   <si>
-    <t>95,04%</t>
+    <t>94,69%</t>
   </si>
   <si>
     <t>97,13%</t>
   </si>
   <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,496 +104,496 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>16,36%</t>
+    <t>13,51%</t>
   </si>
   <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>4,96%</t>
+    <t>5,31%</t>
   </si>
   <si>
     <t>2,87%</t>
   </si>
   <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por otros motivos</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
     <t>0,53%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por otros motivos</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1008,7 +1008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317870E4-435D-460A-8FB3-8E975FF0B78C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73EB1504-E343-4E6C-AB4E-41A6EC2BB0B0}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1512,7 +1512,7 @@
         <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -1521,13 +1521,13 @@
         <v>4587</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1784,7 +1784,7 @@
         <v>85</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1805,7 +1805,7 @@
         <v>29</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -1814,13 +1814,13 @@
         <v>2580</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -1829,13 +1829,13 @@
         <v>2580</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1891,7 +1891,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1903,13 +1903,13 @@
         <v>317945</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H19" s="7">
         <v>462</v>
@@ -1918,13 +1918,13 @@
         <v>332420</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="M19" s="7">
         <v>761</v>
@@ -1933,13 +1933,13 @@
         <v>650366</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1954,13 +1954,13 @@
         <v>14904</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -1969,13 +1969,13 @@
         <v>16415</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M20" s="7">
         <v>32</v>
@@ -1984,13 +1984,13 @@
         <v>31318</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2005,13 +2005,13 @@
         <v>2042</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -2020,13 +2020,13 @@
         <v>5560</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -2035,13 +2035,13 @@
         <v>7602</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>121</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2062,7 +2062,7 @@
         <v>21</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2077,7 +2077,7 @@
         <v>29</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -2086,13 +2086,13 @@
         <v>1077</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2148,7 +2148,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2160,13 +2160,13 @@
         <v>397923</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H24" s="7">
         <v>602</v>
@@ -2175,13 +2175,13 @@
         <v>471758</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M24" s="7">
         <v>1003</v>
@@ -2190,13 +2190,13 @@
         <v>869681</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2211,13 +2211,13 @@
         <v>20244</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H25" s="7">
         <v>52</v>
@@ -2226,13 +2226,13 @@
         <v>31838</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M25" s="7">
         <v>72</v>
@@ -2241,13 +2241,13 @@
         <v>52082</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2262,13 +2262,13 @@
         <v>3908</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -2277,13 +2277,13 @@
         <v>4724</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -2292,13 +2292,13 @@
         <v>8632</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2319,7 +2319,7 @@
         <v>21</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H27" s="7">
         <v>5</v>
@@ -2328,13 +2328,13 @@
         <v>3376</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="M27" s="7">
         <v>7</v>
@@ -2343,13 +2343,13 @@
         <v>5122</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2417,13 +2417,13 @@
         <v>1388659</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H29" s="7">
         <v>2230</v>
@@ -2432,13 +2432,13 @@
         <v>1585375</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M29" s="7">
         <v>3618</v>
@@ -2447,13 +2447,13 @@
         <v>2974034</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2468,13 +2468,13 @@
         <v>115675</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H30" s="7">
         <v>112</v>
@@ -2483,13 +2483,13 @@
         <v>74664</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M30" s="7">
         <v>169</v>
@@ -2498,13 +2498,13 @@
         <v>190339</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,13 +2519,13 @@
         <v>10516</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H31" s="7">
         <v>20</v>
@@ -2534,10 +2534,10 @@
         <v>15891</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>178</v>
@@ -2552,7 +2552,7 @@
         <v>179</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>180</v>
@@ -2573,10 +2573,10 @@
         <v>181</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H32" s="7">
         <v>10</v>
@@ -2585,13 +2585,13 @@
         <v>6605</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M32" s="7">
         <v>14</v>
@@ -2603,10 +2603,10 @@
         <v>60</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>26</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P21D5_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D5_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{046C0122-087B-43C7-9F5A-587E0BEA36D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07ED2CDA-CC1C-44B6-AECF-493918D6714C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B039E57A-B1EE-4C48-B05F-6E5902C310C7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F60B1531-D0C3-4D2C-B5C5-F92AEB6A1705}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="172">
   <si>
     <t>Población que, necesitándolo, no pudo recibir atención médica mental (psiquiatra) en 2023 (Tasa respuesta: 43,82%)</t>
   </si>
@@ -65,535 +65,490 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>No lo ha necesitado</t>
   </si>
   <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
   </si>
   <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por otros motivos</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
     <t>4,5%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por otros motivos</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
+    <t>9,15%</t>
   </si>
   <si>
     <t>4,61%</t>
   </si>
   <si>
-    <t>1,48%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
   </si>
   <si>
     <t>94,47%</t>
   </si>
   <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
+    <t>0,49%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1008,8 +963,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73EB1504-E343-4E6C-AB4E-41A6EC2BB0B0}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95906756-D6DB-444E-8FF6-5468F7671C48}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1126,10 +1081,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>58</v>
+        <v>280</v>
       </c>
       <c r="D4" s="7">
-        <v>50991</v>
+        <v>252162</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1141,10 +1096,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>89</v>
+        <v>501</v>
       </c>
       <c r="I4" s="7">
-        <v>47998</v>
+        <v>291836</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1153,175 +1108,175 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>147</v>
+        <v>781</v>
       </c>
       <c r="N4" s="7">
-        <v>98989</v>
+        <v>543997</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D5" s="7">
-        <v>2403</v>
+        <v>10629</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
+        <v>11</v>
+      </c>
+      <c r="I5" s="7">
+        <v>5519</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7">
         <v>21</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>524</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="7">
-        <v>3</v>
-      </c>
       <c r="N5" s="7">
-        <v>2926</v>
+        <v>16148</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>3115</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>1196</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>4311</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>693</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>1271</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1330,255 +1285,255 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>60</v>
+        <v>294</v>
       </c>
       <c r="D8" s="7">
-        <v>53394</v>
+        <v>266599</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H8" s="7">
-        <v>90</v>
+        <v>515</v>
       </c>
       <c r="I8" s="7">
-        <v>48522</v>
+        <v>299129</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>150</v>
+        <v>809</v>
       </c>
       <c r="N8" s="7">
-        <v>101915</v>
+        <v>565727</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>222</v>
+        <v>408</v>
       </c>
       <c r="D9" s="7">
-        <v>205964</v>
+        <v>394905</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H9" s="7">
-        <v>412</v>
+        <v>665</v>
       </c>
       <c r="I9" s="7">
-        <v>263981</v>
+        <v>422170</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
-        <v>634</v>
+        <v>1073</v>
       </c>
       <c r="N9" s="7">
-        <v>469944</v>
+        <v>817075</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>8617</v>
+        <v>262285</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="H10" s="7">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I10" s="7">
-        <v>5249</v>
+        <v>18342</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="M10" s="7">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="N10" s="7">
-        <v>13867</v>
+        <v>280627</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>3228</v>
+        <v>1199</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I11" s="7">
-        <v>1358</v>
+        <v>3943</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N11" s="7">
-        <v>4587</v>
+        <v>5143</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>649</v>
+        <v>2317</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N12" s="7">
-        <v>1349</v>
+        <v>2317</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1587,255 +1542,255 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>234</v>
+        <v>426</v>
       </c>
       <c r="D13" s="7">
-        <v>218509</v>
+        <v>658389</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H13" s="7">
-        <v>425</v>
+        <v>704</v>
       </c>
       <c r="I13" s="7">
-        <v>271237</v>
+        <v>446772</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="M13" s="7">
-        <v>659</v>
+        <v>1130</v>
       </c>
       <c r="N13" s="7">
-        <v>489746</v>
+        <v>1105162</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>408</v>
+        <v>299</v>
       </c>
       <c r="D14" s="7">
-        <v>415836</v>
+        <v>312815</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
-        <v>665</v>
+        <v>462</v>
       </c>
       <c r="I14" s="7">
-        <v>469218</v>
+        <v>308345</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="M14" s="7">
-        <v>1073</v>
+        <v>761</v>
       </c>
       <c r="N14" s="7">
-        <v>885053</v>
+        <v>621160</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D15" s="7">
-        <v>69507</v>
+        <v>14870</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="H15" s="7">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I15" s="7">
-        <v>20639</v>
+        <v>15160</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="M15" s="7">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="N15" s="7">
-        <v>90146</v>
+        <v>30030</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>1337</v>
+        <v>1985</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
+        <v>5</v>
+      </c>
+      <c r="I16" s="7">
+        <v>5319</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M16" s="7">
         <v>7</v>
       </c>
-      <c r="I16" s="7">
-        <v>4248</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M16" s="7">
-        <v>9</v>
-      </c>
       <c r="N16" s="7">
-        <v>5585</v>
+        <v>7305</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1004</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="7">
         <v>0</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>0</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17" s="7">
-        <v>4</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2580</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>2580</v>
+        <v>1004</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1844,255 +1799,255 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>426</v>
+        <v>313</v>
       </c>
       <c r="D18" s="7">
-        <v>486680</v>
+        <v>330674</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H18" s="7">
-        <v>704</v>
+        <v>488</v>
       </c>
       <c r="I18" s="7">
-        <v>496684</v>
+        <v>328824</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="M18" s="7">
-        <v>1130</v>
+        <v>801</v>
       </c>
       <c r="N18" s="7">
-        <v>983364</v>
+        <v>659498</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>299</v>
+        <v>401</v>
       </c>
       <c r="D19" s="7">
-        <v>317945</v>
+        <v>383802</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="H19" s="7">
-        <v>462</v>
+        <v>602</v>
       </c>
       <c r="I19" s="7">
-        <v>332420</v>
+        <v>481583</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="M19" s="7">
-        <v>761</v>
+        <v>1003</v>
       </c>
       <c r="N19" s="7">
-        <v>650366</v>
+        <v>865385</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D20" s="7">
-        <v>14904</v>
+        <v>19091</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="H20" s="7">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I20" s="7">
-        <v>16415</v>
+        <v>28477</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="M20" s="7">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="N20" s="7">
-        <v>31318</v>
+        <v>47568</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="7">
-        <v>2042</v>
+        <v>3376</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="H21" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I21" s="7">
-        <v>5560</v>
+        <v>4206</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="M21" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N21" s="7">
-        <v>7602</v>
+        <v>7582</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>1077</v>
+        <v>1684</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>3043</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N22" s="7">
-        <v>1077</v>
+        <v>4727</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2101,255 +2056,255 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>313</v>
+        <v>426</v>
       </c>
       <c r="D23" s="7">
-        <v>335968</v>
+        <v>407953</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H23" s="7">
-        <v>488</v>
+        <v>665</v>
       </c>
       <c r="I23" s="7">
-        <v>354395</v>
+        <v>517309</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="M23" s="7">
-        <v>801</v>
+        <v>1091</v>
       </c>
       <c r="N23" s="7">
-        <v>690363</v>
+        <v>925261</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>401</v>
+        <v>1388</v>
       </c>
       <c r="D24" s="7">
-        <v>397923</v>
+        <v>1343683</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="H24" s="7">
-        <v>602</v>
+        <v>2230</v>
       </c>
       <c r="I24" s="7">
-        <v>471758</v>
+        <v>1503933</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="M24" s="7">
-        <v>1003</v>
+        <v>3618</v>
       </c>
       <c r="N24" s="7">
-        <v>869681</v>
+        <v>2847617</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D25" s="7">
-        <v>20244</v>
+        <v>306874</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="H25" s="7">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="I25" s="7">
-        <v>31838</v>
+        <v>67498</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="M25" s="7">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="N25" s="7">
-        <v>52082</v>
+        <v>374372</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D26" s="7">
-        <v>3908</v>
+        <v>9676</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="H26" s="7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I26" s="7">
-        <v>4724</v>
+        <v>14665</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="M26" s="7">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="N26" s="7">
-        <v>8632</v>
+        <v>24340</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" s="7">
-        <v>1746</v>
+        <v>3381</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="H27" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I27" s="7">
-        <v>3376</v>
+        <v>5938</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>156</v>
+        <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N27" s="7">
-        <v>5122</v>
+        <v>9319</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>169</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2358,319 +2313,61 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>426</v>
+        <v>1459</v>
       </c>
       <c r="D28" s="7">
-        <v>423821</v>
+        <v>1663614</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H28" s="7">
-        <v>665</v>
+        <v>2372</v>
       </c>
       <c r="I28" s="7">
-        <v>511696</v>
+        <v>1592034</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="M28" s="7">
-        <v>1091</v>
+        <v>3831</v>
       </c>
       <c r="N28" s="7">
-        <v>935517</v>
+        <v>3255648</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>1388</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1388659</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H29" s="7">
-        <v>2230</v>
-      </c>
-      <c r="I29" s="7">
-        <v>1585375</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M29" s="7">
-        <v>3618</v>
-      </c>
-      <c r="N29" s="7">
-        <v>2974034</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="7">
-        <v>57</v>
-      </c>
-      <c r="D30" s="7">
-        <v>115675</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H30" s="7">
-        <v>112</v>
-      </c>
-      <c r="I30" s="7">
-        <v>74664</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K30" s="7" t="s">
+      <c r="A29" t="s">
         <v>171</v>
       </c>
-      <c r="L30" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="M30" s="7">
-        <v>169</v>
-      </c>
-      <c r="N30" s="7">
-        <v>190339</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="7">
-        <v>10</v>
-      </c>
-      <c r="D31" s="7">
-        <v>10516</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H31" s="7">
-        <v>20</v>
-      </c>
-      <c r="I31" s="7">
-        <v>15891</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="M31" s="7">
-        <v>30</v>
-      </c>
-      <c r="N31" s="7">
-        <v>26406</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="7">
-        <v>4</v>
-      </c>
-      <c r="D32" s="7">
-        <v>3522</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H32" s="7">
-        <v>10</v>
-      </c>
-      <c r="I32" s="7">
-        <v>6605</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="M32" s="7">
-        <v>14</v>
-      </c>
-      <c r="N32" s="7">
-        <v>10127</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>1459</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1518372</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" s="7">
-        <v>2372</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1682534</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M33" s="7">
-        <v>3831</v>
-      </c>
-      <c r="N33" s="7">
-        <v>3200906</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>186</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
